--- a/data/combined data/combined data - 1 cleaning/cleaning step 4 - career/4.3.1 jobs/job_str_2_substr_multi_expanded_2tocode_2Jacob.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 4 - career/4.3.1 jobs/job_str_2_substr_multi_expanded_2tocode_2Jacob.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 4 - career\4.3.1 jobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04099E77-CC91-4BC6-82DB-2D99B6C68907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E9CA23-63EF-4D91-BF7E-5DC1BE041A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5434,14 +5434,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A712" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="5" customWidth="1"/>
-    <col min="2" max="3" width="5" style="5" customWidth="1"/>
+    <col min="1" max="3" width="14" style="5" customWidth="1"/>
     <col min="4" max="4" width="65.6328125" style="5" customWidth="1"/>
     <col min="5" max="6" width="7" style="5" customWidth="1"/>
     <col min="7" max="7" width="31.36328125" style="6" customWidth="1"/>
